--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\H2-model-v02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\HYDROGEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FA5B19-7151-4DB8-802A-75E15DBC866C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B51381-8D5D-4FA7-B0C8-64AE1B176E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="404">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -1221,13 +1221,72 @@
   </si>
   <si>
     <t>ModelPL</t>
+  </si>
+  <si>
+    <t>Example with codes 0-5 using ACT_BND specifying data in 2020 and 2030 but changing inter/extra-polation code:</t>
+  </si>
+  <si>
+    <t>ACT_BND(r,2020,p,s,bd) = 50</t>
+  </si>
+  <si>
+    <t>ACT_BND(r,2030,p,s,bd) = 100</t>
+  </si>
+  <si>
+    <t>ACT_BND(r,'0',p,s,bd) = ??</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>No declaration (default) or 0 - No interpolation AND extrapolation</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>-1 - NO interpolation AND extrapolation</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>1 - Interpolation but NOT extrapolation</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>2 - Interpolation, but extrapolation with EPS (0)</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>3 - Full interpolation and extrapolation</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>4 - Interpolation AND backward extrapolation</t>
+  </si>
+  <si>
+    <t>Case 7</t>
+  </si>
+  <si>
+    <t>5 - Interpolation AND forward extrapolation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="19">
+  <numFmts count="21">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -1248,10 +1307,18 @@
     <numFmt numFmtId="181" formatCode="yyyy"/>
     <numFmt numFmtId="182" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="87">
+  <fonts count="89">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1792,6 +1859,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="49">
@@ -2338,173 +2413,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="726">
+  <cellStyleXfs count="743">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2523,705 +2526,768 @@
     <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="6" fillId="20" borderId="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="7" fillId="20" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="56" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="57" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="56" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="57" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="56" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="57" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="56" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="57" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="5" fillId="24" borderId="10" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="53" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="6" fillId="24" borderId="10" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="54" fillId="0" borderId="0" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="53" fillId="0" borderId="11">
+    <xf numFmtId="4" fontId="54" fillId="0" borderId="11">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="63" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="40" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="64" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="25" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="67" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="29" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="3" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="9" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="17" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="11" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="15" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="19" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="18" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="30" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="10" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="31" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="32" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="69" fillId="33" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="32" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="29" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="70" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="70" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="71" fillId="36" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="72" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="26" borderId="10"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="25" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="66" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="29" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="3" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="9" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="17" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="11" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="15" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="19" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="18" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="30" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="10" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="31" borderId="15" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="32" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="68" fillId="33" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="32" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="29" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="69" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="69" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="70" fillId="36" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="71" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="26" borderId="10"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="16" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="16" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3232,169 +3298,209 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="74" fillId="0" borderId="9" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="37" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="3" fontId="73" fillId="0" borderId="9" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="74" fillId="0" borderId="0">
+    <xf numFmtId="182" fontId="75" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="456" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="456"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="456" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="456"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="456" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="456" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="83" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="84" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" xfId="456" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="44" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="44" borderId="20" xfId="456" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" xfId="456" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" xfId="724" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" xfId="723" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" xfId="487" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" xfId="724" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" xfId="723" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" xfId="487" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="47" borderId="21" xfId="723" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="47" borderId="21" xfId="724" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="44" borderId="23" xfId="456" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="47" borderId="23" xfId="724" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="481" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" xfId="456" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="44" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="45" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="44" borderId="20" xfId="456" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="45" borderId="0" xfId="456" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" xfId="724" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="46" borderId="0" xfId="723" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="46" borderId="0" xfId="487" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="46" borderId="0" xfId="724" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" xfId="723" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" xfId="487" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="21" xfId="723" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="21" xfId="724" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="44" borderId="23" xfId="456" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="23" xfId="724" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="481" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="724" applyFont="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="724"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="478"/>
-    <xf numFmtId="0" fontId="10" fillId="48" borderId="22" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="724" applyFont="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="724"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="478"/>
+    <xf numFmtId="0" fontId="11" fillId="48" borderId="22" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="47" borderId="19" xfId="725" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="19" xfId="725" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="741" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="741" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="10" xfId="742" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="10" xfId="742" applyBorder="1"/>
+    <xf numFmtId="2" fontId="78" fillId="0" borderId="10" xfId="742" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="10" xfId="742" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="726">
+  <cellStyles count="743">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20 % - Akzent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20 % - Akzent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -3696,6 +3802,7 @@
     <cellStyle name="Date" xfId="299" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
     <cellStyle name="DateTime" xfId="300" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
     <cellStyle name="Dezimal [0] 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Dezimal [0] 2 2" xfId="728" xr:uid="{46EBA182-D22F-4737-8F0B-53ED870A657C}"/>
     <cellStyle name="Dezimal 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
     <cellStyle name="Dezimal 3" xfId="303" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
     <cellStyle name="Dezimal_Results_Pan_EU_OLGA_NUC" xfId="304" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
@@ -3781,6 +3888,7 @@
     <cellStyle name="InputCells12_BBorder_CRFReport-template" xfId="384" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
     <cellStyle name="Komma 2" xfId="385" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
     <cellStyle name="Komma 3" xfId="386" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="Komma 3 2" xfId="729" xr:uid="{1EE9CCFB-4932-4EDC-97AC-AE765E54DF24}"/>
     <cellStyle name="Komma 4" xfId="387" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
     <cellStyle name="Komórka połączona 10" xfId="388" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
     <cellStyle name="Komórka połączona 2" xfId="389" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
@@ -3851,8 +3959,10 @@
     <cellStyle name="no dec" xfId="454" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="455" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="Normal - Style1 2" xfId="730" xr:uid="{C587B4F7-9BB1-4064-9D41-EFC28EE75891}"/>
     <cellStyle name="Normal 10" xfId="456" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
     <cellStyle name="Normal 10 2" xfId="724" xr:uid="{EB0C2ED4-4687-4FED-8497-A80B55395A75}"/>
+    <cellStyle name="Normal 10 3" xfId="726" xr:uid="{B02B0549-3760-4580-904B-D1D158780E33}"/>
     <cellStyle name="Normal 14" xfId="457" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
     <cellStyle name="Normal 2" xfId="458" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
     <cellStyle name="Normal 20" xfId="459" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
@@ -3868,6 +3978,8 @@
     <cellStyle name="Normal 6 2" xfId="469" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
     <cellStyle name="Normal 7" xfId="470" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
     <cellStyle name="Normal 7 2" xfId="471" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="Normal 8" xfId="741" xr:uid="{050AD1FD-E1E8-435E-9F57-3C898ED5AFBF}"/>
+    <cellStyle name="Normal 8 2" xfId="742" xr:uid="{C78E04B6-2647-40EA-B49D-5380592CD22F}"/>
     <cellStyle name="Normal GHG Textfiels Bold" xfId="472" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
     <cellStyle name="Normal GHG-Shade" xfId="473" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
     <cellStyle name="Normal GHG-Shade 2" xfId="474" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
@@ -3877,17 +3989,25 @@
     <cellStyle name="Normalny 10 2" xfId="477" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
     <cellStyle name="Normalny 11" xfId="478" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
     <cellStyle name="Normalny 11 2" xfId="479" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="Normalny 11 2 2" xfId="731" xr:uid="{90BE145A-5C59-4475-BF06-35DB4FFADB16}"/>
     <cellStyle name="Normalny 11 3" xfId="480" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="Normalny 11 3 2" xfId="732" xr:uid="{0FDA671A-7D08-4346-8051-FBB1D0AEEAFE}"/>
     <cellStyle name="Normalny 12" xfId="481" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
     <cellStyle name="Normalny 13" xfId="482" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
     <cellStyle name="Normalny 13 2" xfId="483" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="Normalny 13 2 2" xfId="733" xr:uid="{38DB63A7-7B13-4D74-8D98-F0C80E348001}"/>
     <cellStyle name="Normalny 13 3" xfId="484" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
     <cellStyle name="Normalny 14" xfId="485" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="Normalny 14 2" xfId="734" xr:uid="{EA46962A-96AA-464D-B3D5-D8F826298FE4}"/>
     <cellStyle name="Normalny 15" xfId="486" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="Normalny 15 2" xfId="735" xr:uid="{A2580F79-0AE8-4E7A-883B-FC0A7AB2DF31}"/>
     <cellStyle name="Normalny 2" xfId="487" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
     <cellStyle name="Normalny 2 2" xfId="488" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="Normalny 2 2 2" xfId="736" xr:uid="{33E73B6D-3ADF-45C8-8568-1FC915899696}"/>
     <cellStyle name="Normalny 2 3" xfId="725" xr:uid="{1B5E8EBA-37B9-4148-9C3E-C42248866516}"/>
     <cellStyle name="Normalny 3" xfId="489" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="Normalny 3 2" xfId="737" xr:uid="{3C55221B-FBA9-45B4-9B86-9AB30E0BF103}"/>
+    <cellStyle name="Normalny 3 3" xfId="727" xr:uid="{15EBF025-B098-4882-BC82-27B04E370CC6}"/>
     <cellStyle name="Normalny 4" xfId="490" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
     <cellStyle name="Normalny 5" xfId="491" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
     <cellStyle name="Normalny 6" xfId="492" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
@@ -3909,8 +4029,11 @@
     <cellStyle name="Percent [2]" xfId="508" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
     <cellStyle name="Procentowy 2" xfId="509" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
     <cellStyle name="Procentowy 2 2" xfId="510" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="Procentowy 2 2 2" xfId="738" xr:uid="{2C78795B-3398-4332-B15B-016D10B0060E}"/>
     <cellStyle name="Procentowy 2 3" xfId="511" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="Procentowy 2 3 2" xfId="739" xr:uid="{FDE659D8-FF9B-4EBC-A7E3-75CF650A8576}"/>
     <cellStyle name="Procentowy 3" xfId="512" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="Procentowy 4" xfId="740" xr:uid="{D17C4AE5-AC43-4FDC-9603-35B79E41A714}"/>
     <cellStyle name="Prozent 2" xfId="513" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
     <cellStyle name="Prozent 2 2" xfId="514" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
     <cellStyle name="Prozent 3" xfId="515" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
@@ -4145,8 +4268,8 @@
       <xdr:rowOff>140191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1238251</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>143616</xdr:rowOff>
     </xdr:to>
@@ -5433,7 +5556,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -5553,7 +5676,7 @@
       <c r="B30" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -5562,10 +5685,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:K22"/>
+  <dimension ref="B1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5575,7 +5698,9 @@
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="63" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5655,39 +5780,32 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D10" s="20">
         <v>0</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E10" s="19">
         <v>5</v>
       </c>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="2:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D11" s="16">
         <v>0</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E11" s="15">
         <v>5</v>
       </c>
-      <c r="F12" s="15"/>
-    </row>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="2:11" ht="12.75" customHeight="1"/>
     <row r="13" spans="2:11" ht="12.75" customHeight="1">
       <c r="B13" s="4"/>
       <c r="E13" s="10"/>
@@ -5706,7 +5824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15.75" customHeight="1" thickBot="1">
+    <row r="17" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
@@ -5720,12 +5838,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.75" customHeight="1">
+    <row r="18" spans="2:8" ht="15.75" customHeight="1">
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18">
-        <v>5555</v>
+        <v>55555</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -5734,12 +5852,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15.75" customHeight="1" thickBot="1">
+    <row r="19" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="B19" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="21">
-        <v>9999</v>
+        <v>99999</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>24</v>
@@ -5748,9 +5866,247 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="21" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="22" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="20" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="21" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="22" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:8">
+      <c r="H32" s="49" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="8:17">
+      <c r="H33" s="50"/>
+    </row>
+    <row r="34" spans="8:17">
+      <c r="H34" s="50" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35" spans="8:17">
+      <c r="H35" s="50" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="36" spans="8:17">
+      <c r="H36" s="50"/>
+    </row>
+    <row r="37" spans="8:17">
+      <c r="H37" s="50" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="39" spans="8:17" ht="15">
+      <c r="H39" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="51" t="s">
+        <v>389</v>
+      </c>
+      <c r="J39" s="51">
+        <v>2015</v>
+      </c>
+      <c r="K39" s="51">
+        <v>2020</v>
+      </c>
+      <c r="L39" s="51">
+        <v>2025</v>
+      </c>
+      <c r="M39" s="51">
+        <v>2030</v>
+      </c>
+      <c r="N39" s="51">
+        <v>2035</v>
+      </c>
+      <c r="O39" s="51">
+        <v>2040</v>
+      </c>
+      <c r="P39" s="51">
+        <v>2045</v>
+      </c>
+      <c r="Q39" s="51">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="40" spans="8:17" ht="15">
+      <c r="H40" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="I40" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="J40" s="53"/>
+      <c r="K40" s="54">
+        <v>50</v>
+      </c>
+      <c r="L40" s="53"/>
+      <c r="M40" s="54">
+        <v>100</v>
+      </c>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+    </row>
+    <row r="41" spans="8:17" ht="15">
+      <c r="H41" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="I41" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="J41" s="53"/>
+      <c r="K41" s="54">
+        <v>50</v>
+      </c>
+      <c r="L41" s="53"/>
+      <c r="M41" s="54">
+        <v>100</v>
+      </c>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+    </row>
+    <row r="42" spans="8:17" ht="15">
+      <c r="H42" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="I42" s="52" t="s">
+        <v>395</v>
+      </c>
+      <c r="J42" s="53"/>
+      <c r="K42" s="54">
+        <v>50</v>
+      </c>
+      <c r="L42" s="54">
+        <v>75</v>
+      </c>
+      <c r="M42" s="54">
+        <v>100</v>
+      </c>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+    </row>
+    <row r="43" spans="8:17" ht="15">
+      <c r="H43" s="52" t="s">
+        <v>396</v>
+      </c>
+      <c r="I43" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="J43" s="54">
+        <v>0</v>
+      </c>
+      <c r="K43" s="54">
+        <v>50</v>
+      </c>
+      <c r="L43" s="54">
+        <v>75</v>
+      </c>
+      <c r="M43" s="54">
+        <v>100</v>
+      </c>
+      <c r="N43" s="54">
+        <v>0</v>
+      </c>
+      <c r="O43" s="54">
+        <v>0</v>
+      </c>
+      <c r="P43" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:17" ht="15">
+      <c r="H44" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="I44" s="52" t="s">
+        <v>399</v>
+      </c>
+      <c r="J44" s="54">
+        <v>50</v>
+      </c>
+      <c r="K44" s="54">
+        <v>50</v>
+      </c>
+      <c r="L44" s="54">
+        <v>75</v>
+      </c>
+      <c r="M44" s="54">
+        <v>100</v>
+      </c>
+      <c r="N44" s="54">
+        <v>100</v>
+      </c>
+      <c r="O44" s="54">
+        <v>100</v>
+      </c>
+      <c r="P44" s="54">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="8:17" ht="15">
+      <c r="H45" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="I45" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="J45" s="54">
+        <v>50</v>
+      </c>
+      <c r="K45" s="54">
+        <v>50</v>
+      </c>
+      <c r="L45" s="54">
+        <v>75</v>
+      </c>
+      <c r="M45" s="54">
+        <v>100</v>
+      </c>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
+    </row>
+    <row r="46" spans="8:17" ht="15">
+      <c r="H46" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="I46" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="J46" s="53"/>
+      <c r="K46" s="54">
+        <v>50</v>
+      </c>
+      <c r="L46" s="54">
+        <v>75</v>
+      </c>
+      <c r="M46" s="54">
+        <v>100</v>
+      </c>
+      <c r="N46" s="54">
+        <v>100</v>
+      </c>
+      <c r="O46" s="54">
+        <v>100</v>
+      </c>
+      <c r="P46" s="54">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="54">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
